--- a/assets/img/vision/depth/metrics/metrics.xlsx
+++ b/assets/img/vision/depth/metrics/metrics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauss\Documents\GitHub\gaussian37.github.io\assets\img\vision\depth\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A96793E-5BC0-4D7C-9CA7-8AC3D28DFC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA19572-4D3C-4ABE-9785-0604829C4455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24735" yWindow="3165" windowWidth="21975" windowHeight="11100" activeTab="1" xr2:uid="{805761C1-3FD4-46B1-A9BD-51B7DBFC8689}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{805761C1-3FD4-46B1-A9BD-51B7DBFC8689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Absolute Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +123,30 @@
   </si>
   <si>
     <t>모델 A, B의 Abs Rel, Sq Rel 성능 비교 (작을수록 성능이 좋음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>δ3 = 1.953125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>δ2 = 1.5625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>δ = 1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT depth (m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +196,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="나눔바른고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="나눔바른고딕"/>
@@ -239,23 +272,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,10 +297,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,14 +321,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -315,6 +351,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A35E5E4-4545-4D7C-B9DC-64417B87D87C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="838200"/>
+          <a:ext cx="4962525" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>Depth Estimation Accuracy </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>계산 시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>예측값이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>(min, max)  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>구간 범위 이내 시 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>True Positive</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>로 처리함</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,7 +824,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -685,11 +878,11 @@
         <f>E9/B9</f>
         <v>1</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>F9/F$9</f>
         <v>1</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>G9/G$9</f>
         <v>1</v>
       </c>
@@ -717,11 +910,11 @@
         <f>E10/B10</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>F10/F9</f>
         <v>1.1111111111111109</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <f>G10/G9</f>
         <v>1.1111111111111112</v>
       </c>
@@ -749,11 +942,11 @@
         <f t="shared" ref="G11:G18" si="3">E11/B11</f>
         <v>1.25</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f t="shared" ref="H11:I18" si="4">F11/F10</f>
         <v>1.125</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <f t="shared" si="4"/>
         <v>1.125</v>
       </c>
@@ -781,11 +974,11 @@
         <f t="shared" si="3"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
@@ -813,11 +1006,11 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f t="shared" si="4"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <f t="shared" si="4"/>
         <v>1.1666666666666667</v>
       </c>
@@ -845,11 +1038,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f t="shared" si="4"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
@@ -877,11 +1070,11 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
@@ -909,11 +1102,11 @@
         <f t="shared" si="3"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <f t="shared" si="4"/>
         <v>1.3333333333333335</v>
       </c>
@@ -941,11 +1134,11 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="17">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
@@ -973,17 +1166,17 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="17">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1020,11 +1213,11 @@
       <c r="C24" s="1">
         <v>95</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="1">
         <f>ABS(B24-C24)</f>
         <v>5</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="1">
         <f>D24*D24</f>
         <v>25</v>
       </c>
@@ -1036,11 +1229,11 @@
         <f>E24/B24</f>
         <v>0.25</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f>F24/F$24</f>
         <v>1</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <f>G24/G$24</f>
         <v>1</v>
       </c>
@@ -1052,11 +1245,11 @@
       <c r="C25" s="1">
         <v>90</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <f>ABS(B25-C25)</f>
         <v>10</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="1">
         <f>D25*D25</f>
         <v>100</v>
       </c>
@@ -1068,11 +1261,11 @@
         <f>E25/B25</f>
         <v>1</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f>F25/F24</f>
         <v>2</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <f>G25/G24</f>
         <v>4</v>
       </c>
@@ -1084,11 +1277,11 @@
       <c r="C26" s="1">
         <v>85</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="1">
         <f t="shared" ref="D26:D28" si="6">ABS(B26-C26)</f>
         <v>15</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="1">
         <f t="shared" ref="E26:E28" si="7">D26*D26</f>
         <v>225</v>
       </c>
@@ -1100,11 +1293,11 @@
         <f t="shared" ref="G26:G28" si="8">E26/B26</f>
         <v>2.25</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" ref="H26:I28" si="9">F26/F25</f>
         <v>1.4999999999999998</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
@@ -1116,11 +1309,11 @@
       <c r="C27" s="1">
         <v>80</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="1">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
@@ -1132,11 +1325,11 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="17">
         <f t="shared" si="9"/>
         <v>1.3333333333333335</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="16">
         <f t="shared" si="9"/>
         <v>1.7777777777777777</v>
       </c>
@@ -1148,11 +1341,11 @@
       <c r="C28" s="1">
         <v>75</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="1">
         <f t="shared" si="7"/>
         <v>625</v>
       </c>
@@ -1164,25 +1357,25 @@
         <f t="shared" si="8"/>
         <v>6.25</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="16">
         <f t="shared" si="9"/>
         <v>1.5625</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1219,11 +1412,11 @@
       <c r="C33" s="1">
         <v>25</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="1">
         <f>ABS(B33-C33)</f>
         <v>5</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="1">
         <f>D33*D33</f>
         <v>25</v>
       </c>
@@ -1235,11 +1428,11 @@
         <f>E33/B33</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f>F33/F$33</f>
         <v>1</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <f>G33/G$33</f>
         <v>1</v>
       </c>
@@ -1251,11 +1444,11 @@
       <c r="C34" s="1">
         <v>20</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="1">
         <f>ABS(B34-C34)</f>
         <v>10</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="1">
         <f>D34*D34</f>
         <v>100</v>
       </c>
@@ -1267,11 +1460,11 @@
         <f>E34/B34</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f>F34/F33</f>
         <v>2</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <f>G34/G33</f>
         <v>4</v>
       </c>
@@ -1283,11 +1476,11 @@
       <c r="C35" s="1">
         <v>15</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="1">
         <f t="shared" ref="D35:D37" si="11">ABS(B35-C35)</f>
         <v>15</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="1">
         <f t="shared" ref="E35:E37" si="12">D35*D35</f>
         <v>225</v>
       </c>
@@ -1299,11 +1492,11 @@
         <f t="shared" ref="G35:G37" si="13">E35/B35</f>
         <v>7.5</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f t="shared" ref="H35:I37" si="14">F35/F34</f>
         <v>1.5</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
@@ -1315,11 +1508,11 @@
       <c r="C36" s="1">
         <v>10</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="1">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="1">
         <f t="shared" si="12"/>
         <v>400</v>
       </c>
@@ -1331,11 +1524,11 @@
         <f t="shared" si="13"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="17">
         <f t="shared" si="14"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="16">
         <f t="shared" si="14"/>
         <v>1.7777777777777779</v>
       </c>
@@ -1347,11 +1540,11 @@
       <c r="C37" s="1">
         <v>5</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="1">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="1">
         <f t="shared" si="12"/>
         <v>625</v>
       </c>
@@ -1363,17 +1556,17 @@
         <f t="shared" si="13"/>
         <v>20.833333333333332</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <f t="shared" si="14"/>
         <v>1.2500000000000002</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="16">
         <f t="shared" si="14"/>
         <v>1.5624999999999998</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
+      <c r="B45" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1553,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE7EA26-5E3A-4B1C-AAD2-3F3221E1BD1F}">
   <dimension ref="B4:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1565,80 +1758,80 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1646,4 +1839,697 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C360336B-109D-4514-8025-0E44C210F28A}">
+  <dimension ref="C2:I29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1.25</v>
+      </c>
+      <c r="F2">
+        <f>1.25*1.25</f>
+        <v>1.5625</v>
+      </c>
+      <c r="H2">
+        <f>1.25*1.25*1.25</f>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="18"/>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <f>$C10/$D$2</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="11">
+        <f>$C10*$D$2</f>
+        <v>6.25</v>
+      </c>
+      <c r="F10" s="11">
+        <f>$C10/$F$2</f>
+        <v>3.2</v>
+      </c>
+      <c r="G10" s="11">
+        <f>$C10*$F$2</f>
+        <v>7.8125</v>
+      </c>
+      <c r="H10" s="11">
+        <f>$C10/$H$2</f>
+        <v>2.56</v>
+      </c>
+      <c r="I10" s="11">
+        <f>$C10*$H$2</f>
+        <v>9.765625</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <f>$C11/$D$2</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
+        <f>$C11*$D$2</f>
+        <v>12.5</v>
+      </c>
+      <c r="F11" s="11">
+        <f>$C11/$F$2</f>
+        <v>6.4</v>
+      </c>
+      <c r="G11" s="11">
+        <f>$C11*$F$2</f>
+        <v>15.625</v>
+      </c>
+      <c r="H11" s="11">
+        <f>$C11/$H$2</f>
+        <v>5.12</v>
+      </c>
+      <c r="I11" s="11">
+        <f>$C11*$H$2</f>
+        <v>19.53125</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="11">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11">
+        <f>$C12/$D$2</f>
+        <v>12</v>
+      </c>
+      <c r="E12" s="11">
+        <f>$C12*$D$2</f>
+        <v>18.75</v>
+      </c>
+      <c r="F12" s="11">
+        <f>$C12/$F$2</f>
+        <v>9.6</v>
+      </c>
+      <c r="G12" s="11">
+        <f>$C12*$F$2</f>
+        <v>23.4375</v>
+      </c>
+      <c r="H12" s="11">
+        <f>$C12/$H$2</f>
+        <v>7.68</v>
+      </c>
+      <c r="I12" s="11">
+        <f>$C12*$H$2</f>
+        <v>29.296875</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="11">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11">
+        <f>$C13/$D$2</f>
+        <v>16</v>
+      </c>
+      <c r="E13" s="11">
+        <f>$C13*$D$2</f>
+        <v>25</v>
+      </c>
+      <c r="F13" s="11">
+        <f>$C13/$F$2</f>
+        <v>12.8</v>
+      </c>
+      <c r="G13" s="11">
+        <f>$C13*$F$2</f>
+        <v>31.25</v>
+      </c>
+      <c r="H13" s="11">
+        <f>$C13/$H$2</f>
+        <v>10.24</v>
+      </c>
+      <c r="I13" s="11">
+        <f>$C13*$H$2</f>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="11">
+        <v>25</v>
+      </c>
+      <c r="D14" s="11">
+        <f>$C14/$D$2</f>
+        <v>20</v>
+      </c>
+      <c r="E14" s="11">
+        <f>$C14*$D$2</f>
+        <v>31.25</v>
+      </c>
+      <c r="F14" s="11">
+        <f>$C14/$F$2</f>
+        <v>16</v>
+      </c>
+      <c r="G14" s="11">
+        <f>$C14*$F$2</f>
+        <v>39.0625</v>
+      </c>
+      <c r="H14" s="11">
+        <f>$C14/$H$2</f>
+        <v>12.8</v>
+      </c>
+      <c r="I14" s="11">
+        <f>$C14*$H$2</f>
+        <v>48.828125</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="11">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11">
+        <f>$C15/$D$2</f>
+        <v>24</v>
+      </c>
+      <c r="E15" s="11">
+        <f>$C15*$D$2</f>
+        <v>37.5</v>
+      </c>
+      <c r="F15" s="11">
+        <f>$C15/$F$2</f>
+        <v>19.2</v>
+      </c>
+      <c r="G15" s="11">
+        <f>$C15*$F$2</f>
+        <v>46.875</v>
+      </c>
+      <c r="H15" s="11">
+        <f>$C15/$H$2</f>
+        <v>15.36</v>
+      </c>
+      <c r="I15" s="11">
+        <f>$C15*$H$2</f>
+        <v>58.59375</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="11">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11">
+        <f>$C16/$D$2</f>
+        <v>28</v>
+      </c>
+      <c r="E16" s="11">
+        <f>$C16*$D$2</f>
+        <v>43.75</v>
+      </c>
+      <c r="F16" s="11">
+        <f>$C16/$F$2</f>
+        <v>22.4</v>
+      </c>
+      <c r="G16" s="11">
+        <f>$C16*$F$2</f>
+        <v>54.6875</v>
+      </c>
+      <c r="H16" s="11">
+        <f>$C16/$H$2</f>
+        <v>17.920000000000002</v>
+      </c>
+      <c r="I16" s="11">
+        <f>$C16*$H$2</f>
+        <v>68.359375</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="11">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11">
+        <f>$C17/$D$2</f>
+        <v>32</v>
+      </c>
+      <c r="E17" s="11">
+        <f>$C17*$D$2</f>
+        <v>50</v>
+      </c>
+      <c r="F17" s="11">
+        <f>$C17/$F$2</f>
+        <v>25.6</v>
+      </c>
+      <c r="G17" s="11">
+        <f>$C17*$F$2</f>
+        <v>62.5</v>
+      </c>
+      <c r="H17" s="11">
+        <f>$C17/$H$2</f>
+        <v>20.48</v>
+      </c>
+      <c r="I17" s="11">
+        <f>$C17*$H$2</f>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="11">
+        <v>45</v>
+      </c>
+      <c r="D18" s="11">
+        <f>$C18/$D$2</f>
+        <v>36</v>
+      </c>
+      <c r="E18" s="11">
+        <f>$C18*$D$2</f>
+        <v>56.25</v>
+      </c>
+      <c r="F18" s="11">
+        <f>$C18/$F$2</f>
+        <v>28.8</v>
+      </c>
+      <c r="G18" s="11">
+        <f>$C18*$F$2</f>
+        <v>70.3125</v>
+      </c>
+      <c r="H18" s="11">
+        <f>$C18/$H$2</f>
+        <v>23.04</v>
+      </c>
+      <c r="I18" s="11">
+        <f>$C18*$H$2</f>
+        <v>87.890625</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="11">
+        <v>50</v>
+      </c>
+      <c r="D19" s="11">
+        <f>$C19/$D$2</f>
+        <v>40</v>
+      </c>
+      <c r="E19" s="11">
+        <f>$C19*$D$2</f>
+        <v>62.5</v>
+      </c>
+      <c r="F19" s="11">
+        <f>$C19/$F$2</f>
+        <v>32</v>
+      </c>
+      <c r="G19" s="11">
+        <f>$C19*$F$2</f>
+        <v>78.125</v>
+      </c>
+      <c r="H19" s="11">
+        <f>$C19/$H$2</f>
+        <v>25.6</v>
+      </c>
+      <c r="I19" s="11">
+        <f>$C19*$H$2</f>
+        <v>97.65625</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="11">
+        <v>55</v>
+      </c>
+      <c r="D20" s="11">
+        <f>$C20/$D$2</f>
+        <v>44</v>
+      </c>
+      <c r="E20" s="11">
+        <f>$C20*$D$2</f>
+        <v>68.75</v>
+      </c>
+      <c r="F20" s="11">
+        <f>$C20/$F$2</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G20" s="11">
+        <f>$C20*$F$2</f>
+        <v>85.9375</v>
+      </c>
+      <c r="H20" s="11">
+        <f>$C20/$H$2</f>
+        <v>28.16</v>
+      </c>
+      <c r="I20" s="11">
+        <f>$C20*$H$2</f>
+        <v>107.421875</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="11">
+        <v>60</v>
+      </c>
+      <c r="D21" s="11">
+        <f>$C21/$D$2</f>
+        <v>48</v>
+      </c>
+      <c r="E21" s="11">
+        <f>$C21*$D$2</f>
+        <v>75</v>
+      </c>
+      <c r="F21" s="11">
+        <f>$C21/$F$2</f>
+        <v>38.4</v>
+      </c>
+      <c r="G21" s="11">
+        <f>$C21*$F$2</f>
+        <v>93.75</v>
+      </c>
+      <c r="H21" s="11">
+        <f>$C21/$H$2</f>
+        <v>30.72</v>
+      </c>
+      <c r="I21" s="11">
+        <f>$C21*$H$2</f>
+        <v>117.1875</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="11">
+        <v>65</v>
+      </c>
+      <c r="D22" s="11">
+        <f>$C22/$D$2</f>
+        <v>52</v>
+      </c>
+      <c r="E22" s="11">
+        <f>$C22*$D$2</f>
+        <v>81.25</v>
+      </c>
+      <c r="F22" s="11">
+        <f>$C22/$F$2</f>
+        <v>41.6</v>
+      </c>
+      <c r="G22" s="11">
+        <f>$C22*$F$2</f>
+        <v>101.5625</v>
+      </c>
+      <c r="H22" s="11">
+        <f>$C22/$H$2</f>
+        <v>33.28</v>
+      </c>
+      <c r="I22" s="11">
+        <f>$C22*$H$2</f>
+        <v>126.953125</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="11">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11">
+        <f>$C23/$D$2</f>
+        <v>56</v>
+      </c>
+      <c r="E23" s="11">
+        <f>$C23*$D$2</f>
+        <v>87.5</v>
+      </c>
+      <c r="F23" s="11">
+        <f>$C23/$F$2</f>
+        <v>44.8</v>
+      </c>
+      <c r="G23" s="11">
+        <f>$C23*$F$2</f>
+        <v>109.375</v>
+      </c>
+      <c r="H23" s="11">
+        <f>$C23/$H$2</f>
+        <v>35.840000000000003</v>
+      </c>
+      <c r="I23" s="11">
+        <f>$C23*$H$2</f>
+        <v>136.71875</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="11">
+        <v>75</v>
+      </c>
+      <c r="D24" s="11">
+        <f>$C24/$D$2</f>
+        <v>60</v>
+      </c>
+      <c r="E24" s="11">
+        <f>$C24*$D$2</f>
+        <v>93.75</v>
+      </c>
+      <c r="F24" s="11">
+        <f>$C24/$F$2</f>
+        <v>48</v>
+      </c>
+      <c r="G24" s="11">
+        <f>$C24*$F$2</f>
+        <v>117.1875</v>
+      </c>
+      <c r="H24" s="11">
+        <f>$C24/$H$2</f>
+        <v>38.4</v>
+      </c>
+      <c r="I24" s="11">
+        <f>$C24*$H$2</f>
+        <v>146.484375</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="11">
+        <v>80</v>
+      </c>
+      <c r="D25" s="11">
+        <f>$C25/$D$2</f>
+        <v>64</v>
+      </c>
+      <c r="E25" s="11">
+        <f>$C25*$D$2</f>
+        <v>100</v>
+      </c>
+      <c r="F25" s="11">
+        <f>$C25/$F$2</f>
+        <v>51.2</v>
+      </c>
+      <c r="G25" s="11">
+        <f>$C25*$F$2</f>
+        <v>125</v>
+      </c>
+      <c r="H25" s="11">
+        <f>$C25/$H$2</f>
+        <v>40.96</v>
+      </c>
+      <c r="I25" s="11">
+        <f>$C25*$H$2</f>
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="11">
+        <v>85</v>
+      </c>
+      <c r="D26" s="11">
+        <f>$C26/$D$2</f>
+        <v>68</v>
+      </c>
+      <c r="E26" s="11">
+        <f>$C26*$D$2</f>
+        <v>106.25</v>
+      </c>
+      <c r="F26" s="11">
+        <f>$C26/$F$2</f>
+        <v>54.4</v>
+      </c>
+      <c r="G26" s="11">
+        <f>$C26*$F$2</f>
+        <v>132.8125</v>
+      </c>
+      <c r="H26" s="11">
+        <f>$C26/$H$2</f>
+        <v>43.52</v>
+      </c>
+      <c r="I26" s="11">
+        <f>$C26*$H$2</f>
+        <v>166.015625</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="11">
+        <v>90</v>
+      </c>
+      <c r="D27" s="11">
+        <f>$C27/$D$2</f>
+        <v>72</v>
+      </c>
+      <c r="E27" s="11">
+        <f>$C27*$D$2</f>
+        <v>112.5</v>
+      </c>
+      <c r="F27" s="11">
+        <f>$C27/$F$2</f>
+        <v>57.6</v>
+      </c>
+      <c r="G27" s="11">
+        <f>$C27*$F$2</f>
+        <v>140.625</v>
+      </c>
+      <c r="H27" s="11">
+        <f>$C27/$H$2</f>
+        <v>46.08</v>
+      </c>
+      <c r="I27" s="11">
+        <f>$C27*$H$2</f>
+        <v>175.78125</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="11">
+        <v>95</v>
+      </c>
+      <c r="D28" s="11">
+        <f>$C28/$D$2</f>
+        <v>76</v>
+      </c>
+      <c r="E28" s="11">
+        <f>$C28*$D$2</f>
+        <v>118.75</v>
+      </c>
+      <c r="F28" s="11">
+        <f>$C28/$F$2</f>
+        <v>60.8</v>
+      </c>
+      <c r="G28" s="11">
+        <f>$C28*$F$2</f>
+        <v>148.4375</v>
+      </c>
+      <c r="H28" s="11">
+        <f>$C28/$H$2</f>
+        <v>48.64</v>
+      </c>
+      <c r="I28" s="11">
+        <f>$C28*$H$2</f>
+        <v>185.546875</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="11">
+        <v>100</v>
+      </c>
+      <c r="D29" s="11">
+        <f>$C29/$D$2</f>
+        <v>80</v>
+      </c>
+      <c r="E29" s="11">
+        <f>$C29*$D$2</f>
+        <v>125</v>
+      </c>
+      <c r="F29" s="11">
+        <f>$C29/$F$2</f>
+        <v>64</v>
+      </c>
+      <c r="G29" s="11">
+        <f>$C29*$F$2</f>
+        <v>156.25</v>
+      </c>
+      <c r="H29" s="11">
+        <f>$C29/$H$2</f>
+        <v>51.2</v>
+      </c>
+      <c r="I29" s="11">
+        <f>$C29*$H$2</f>
+        <v>195.3125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/img/vision/depth/metrics/metrics.xlsx
+++ b/assets/img/vision/depth/metrics/metrics.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauss\Documents\GitHub\gaussian37.github.io\assets\img\vision\depth\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA19572-4D3C-4ABE-9785-0604829C4455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AAAB1-97F0-4B4D-B1A9-21DF53D584B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{805761C1-3FD4-46B1-A9BD-51B7DBFC8689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="accuracy" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Absolute Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +150,22 @@
     <t>GT depth (m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +227,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -243,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -266,13 +297,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,13 +384,22 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,6 +420,163 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30FC0EC-EB41-4CE5-9D55-B1130F9A0DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="847725"/>
+          <a:ext cx="5295900" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>Depth Estimation Accuracy </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>계산 시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>예측값이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>(min, max)  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>구간 범위 이내 시 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>True Positive</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>로 처리함</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1842,11 +2065,710 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5772B157-5537-4029-A8A6-D06595DECA08}">
+  <dimension ref="C2:I29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="F2">
+        <f>D2*D2</f>
+        <v>1.44</v>
+      </c>
+      <c r="H2">
+        <f>D2*D2*D2</f>
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="22">
+        <f>D2</f>
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="22">
+        <f>F2</f>
+        <v>1.44</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="22">
+        <f>H2</f>
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="20"/>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" ref="D10:D29" si="0">$C10/$D$2</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" ref="E10:E29" si="1">$C10*$D$2</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F29" si="2">$C10/$F$2</f>
+        <v>3.4722222222222223</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" ref="G10:G29" si="3">$C10*$F$2</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" ref="H10:H29" si="4">$C10/$H$2</f>
+        <v>2.8935185185185186</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" ref="I10:I29" si="5">$C10*$H$2</f>
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="3"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="4"/>
+        <v>5.7870370370370372</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="5"/>
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="11">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="3"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="4"/>
+        <v>8.6805555555555554</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="5"/>
+        <v>25.919999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="11">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="3"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="4"/>
+        <v>11.574074074074074</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="5"/>
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="11">
+        <v>25</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
+        <v>17.361111111111111</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="4"/>
+        <v>14.467592592592593</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="5"/>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="11">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="3"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="4"/>
+        <v>17.361111111111111</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="5"/>
+        <v>51.839999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="11">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
+        <v>24.305555555555557</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="3"/>
+        <v>50.4</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="4"/>
+        <v>20.25462962962963</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="5"/>
+        <v>60.48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="11">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="2"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="3"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="4"/>
+        <v>23.148148148148149</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="5"/>
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="11">
+        <v>45</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="2"/>
+        <v>31.25</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="3"/>
+        <v>64.8</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="4"/>
+        <v>26.041666666666668</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="5"/>
+        <v>77.760000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="11">
+        <v>50</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="2"/>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="4"/>
+        <v>28.935185185185187</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="5"/>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="11">
+        <v>55</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>45.833333333333336</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="2"/>
+        <v>38.194444444444443</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="3"/>
+        <v>79.2</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="4"/>
+        <v>31.828703703703702</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="5"/>
+        <v>95.039999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="11">
+        <v>60</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="2"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="3"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="4"/>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="5"/>
+        <v>103.67999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="11">
+        <v>65</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="2"/>
+        <v>45.138888888888893</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="3"/>
+        <v>93.6</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="4"/>
+        <v>37.61574074074074</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="5"/>
+        <v>112.32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="11">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="2"/>
+        <v>48.611111111111114</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="3"/>
+        <v>100.8</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="4"/>
+        <v>40.50925925925926</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="5"/>
+        <v>120.96</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="11">
+        <v>75</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="2"/>
+        <v>52.083333333333336</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="4"/>
+        <v>43.402777777777779</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="5"/>
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="11">
+        <v>80</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="2"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="3"/>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="4"/>
+        <v>46.296296296296298</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="5"/>
+        <v>138.24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="11">
+        <v>85</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>70.833333333333343</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="2"/>
+        <v>59.027777777777779</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="3"/>
+        <v>122.39999999999999</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="4"/>
+        <v>49.189814814814817</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="5"/>
+        <v>146.88</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="11">
+        <v>90</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="3"/>
+        <v>129.6</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="4"/>
+        <v>52.083333333333336</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="5"/>
+        <v>155.52000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="11">
+        <v>95</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>79.166666666666671</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="2"/>
+        <v>65.972222222222229</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="3"/>
+        <v>136.79999999999998</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="4"/>
+        <v>54.976851851851855</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="5"/>
+        <v>164.16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="11">
+        <v>100</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="2"/>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="4"/>
+        <v>57.870370370370374</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="5"/>
+        <v>172.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C360336B-109D-4514-8025-0E44C210F28A}">
   <dimension ref="C2:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1868,60 +2790,60 @@
       </c>
     </row>
     <row r="4" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C5" s="20"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1946,27 +2868,27 @@
         <v>5</v>
       </c>
       <c r="D10" s="11">
-        <f>$C10/$D$2</f>
+        <f t="shared" ref="D10:D29" si="0">$C10/$D$2</f>
         <v>4</v>
       </c>
       <c r="E10" s="11">
-        <f>$C10*$D$2</f>
+        <f t="shared" ref="E10:E29" si="1">$C10*$D$2</f>
         <v>6.25</v>
       </c>
       <c r="F10" s="11">
-        <f>$C10/$F$2</f>
+        <f t="shared" ref="F10:F29" si="2">$C10/$F$2</f>
         <v>3.2</v>
       </c>
       <c r="G10" s="11">
-        <f>$C10*$F$2</f>
+        <f t="shared" ref="G10:G29" si="3">$C10*$F$2</f>
         <v>7.8125</v>
       </c>
       <c r="H10" s="11">
-        <f>$C10/$H$2</f>
+        <f t="shared" ref="H10:H29" si="4">$C10/$H$2</f>
         <v>2.56</v>
       </c>
       <c r="I10" s="11">
-        <f>$C10*$H$2</f>
+        <f t="shared" ref="I10:I29" si="5">$C10*$H$2</f>
         <v>9.765625</v>
       </c>
     </row>
@@ -1975,27 +2897,27 @@
         <v>10</v>
       </c>
       <c r="D11" s="11">
-        <f>$C11/$D$2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E11" s="11">
-        <f>$C11*$D$2</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="F11" s="11">
-        <f>$C11/$F$2</f>
+        <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
       <c r="G11" s="11">
-        <f>$C11*$F$2</f>
+        <f t="shared" si="3"/>
         <v>15.625</v>
       </c>
       <c r="H11" s="11">
-        <f>$C11/$H$2</f>
+        <f t="shared" si="4"/>
         <v>5.12</v>
       </c>
       <c r="I11" s="11">
-        <f>$C11*$H$2</f>
+        <f t="shared" si="5"/>
         <v>19.53125</v>
       </c>
     </row>
@@ -2004,27 +2926,27 @@
         <v>15</v>
       </c>
       <c r="D12" s="11">
-        <f>$C12/$D$2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E12" s="11">
-        <f>$C12*$D$2</f>
+        <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="F12" s="11">
-        <f>$C12/$F$2</f>
+        <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
       <c r="G12" s="11">
-        <f>$C12*$F$2</f>
+        <f t="shared" si="3"/>
         <v>23.4375</v>
       </c>
       <c r="H12" s="11">
-        <f>$C12/$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.68</v>
       </c>
       <c r="I12" s="11">
-        <f>$C12*$H$2</f>
+        <f t="shared" si="5"/>
         <v>29.296875</v>
       </c>
     </row>
@@ -2033,27 +2955,27 @@
         <v>20</v>
       </c>
       <c r="D13" s="11">
-        <f>$C13/$D$2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E13" s="11">
-        <f>$C13*$D$2</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F13" s="11">
-        <f>$C13/$F$2</f>
+        <f t="shared" si="2"/>
         <v>12.8</v>
       </c>
       <c r="G13" s="11">
-        <f>$C13*$F$2</f>
+        <f t="shared" si="3"/>
         <v>31.25</v>
       </c>
       <c r="H13" s="11">
-        <f>$C13/$H$2</f>
+        <f t="shared" si="4"/>
         <v>10.24</v>
       </c>
       <c r="I13" s="11">
-        <f>$C13*$H$2</f>
+        <f t="shared" si="5"/>
         <v>39.0625</v>
       </c>
     </row>
@@ -2062,27 +2984,27 @@
         <v>25</v>
       </c>
       <c r="D14" s="11">
-        <f>$C14/$D$2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E14" s="11">
-        <f>$C14*$D$2</f>
+        <f t="shared" si="1"/>
         <v>31.25</v>
       </c>
       <c r="F14" s="11">
-        <f>$C14/$F$2</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G14" s="11">
-        <f>$C14*$F$2</f>
+        <f t="shared" si="3"/>
         <v>39.0625</v>
       </c>
       <c r="H14" s="11">
-        <f>$C14/$H$2</f>
+        <f t="shared" si="4"/>
         <v>12.8</v>
       </c>
       <c r="I14" s="11">
-        <f>$C14*$H$2</f>
+        <f t="shared" si="5"/>
         <v>48.828125</v>
       </c>
     </row>
@@ -2091,27 +3013,27 @@
         <v>30</v>
       </c>
       <c r="D15" s="11">
-        <f>$C15/$D$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E15" s="11">
-        <f>$C15*$D$2</f>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="F15" s="11">
-        <f>$C15/$F$2</f>
+        <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
       <c r="G15" s="11">
-        <f>$C15*$F$2</f>
+        <f t="shared" si="3"/>
         <v>46.875</v>
       </c>
       <c r="H15" s="11">
-        <f>$C15/$H$2</f>
+        <f t="shared" si="4"/>
         <v>15.36</v>
       </c>
       <c r="I15" s="11">
-        <f>$C15*$H$2</f>
+        <f t="shared" si="5"/>
         <v>58.59375</v>
       </c>
     </row>
@@ -2120,27 +3042,27 @@
         <v>35</v>
       </c>
       <c r="D16" s="11">
-        <f>$C16/$D$2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E16" s="11">
-        <f>$C16*$D$2</f>
+        <f t="shared" si="1"/>
         <v>43.75</v>
       </c>
       <c r="F16" s="11">
-        <f>$C16/$F$2</f>
+        <f t="shared" si="2"/>
         <v>22.4</v>
       </c>
       <c r="G16" s="11">
-        <f>$C16*$F$2</f>
+        <f t="shared" si="3"/>
         <v>54.6875</v>
       </c>
       <c r="H16" s="11">
-        <f>$C16/$H$2</f>
+        <f t="shared" si="4"/>
         <v>17.920000000000002</v>
       </c>
       <c r="I16" s="11">
-        <f>$C16*$H$2</f>
+        <f t="shared" si="5"/>
         <v>68.359375</v>
       </c>
     </row>
@@ -2149,27 +3071,27 @@
         <v>40</v>
       </c>
       <c r="D17" s="11">
-        <f>$C17/$D$2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E17" s="11">
-        <f>$C17*$D$2</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="F17" s="11">
-        <f>$C17/$F$2</f>
+        <f t="shared" si="2"/>
         <v>25.6</v>
       </c>
       <c r="G17" s="11">
-        <f>$C17*$F$2</f>
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
       <c r="H17" s="11">
-        <f>$C17/$H$2</f>
+        <f t="shared" si="4"/>
         <v>20.48</v>
       </c>
       <c r="I17" s="11">
-        <f>$C17*$H$2</f>
+        <f t="shared" si="5"/>
         <v>78.125</v>
       </c>
     </row>
@@ -2178,27 +3100,27 @@
         <v>45</v>
       </c>
       <c r="D18" s="11">
-        <f>$C18/$D$2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E18" s="11">
-        <f>$C18*$D$2</f>
+        <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
       <c r="F18" s="11">
-        <f>$C18/$F$2</f>
+        <f t="shared" si="2"/>
         <v>28.8</v>
       </c>
       <c r="G18" s="11">
-        <f>$C18*$F$2</f>
+        <f t="shared" si="3"/>
         <v>70.3125</v>
       </c>
       <c r="H18" s="11">
-        <f>$C18/$H$2</f>
+        <f t="shared" si="4"/>
         <v>23.04</v>
       </c>
       <c r="I18" s="11">
-        <f>$C18*$H$2</f>
+        <f t="shared" si="5"/>
         <v>87.890625</v>
       </c>
     </row>
@@ -2207,27 +3129,27 @@
         <v>50</v>
       </c>
       <c r="D19" s="11">
-        <f>$C19/$D$2</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E19" s="11">
-        <f>$C19*$D$2</f>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="F19" s="11">
-        <f>$C19/$F$2</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="G19" s="11">
-        <f>$C19*$F$2</f>
+        <f t="shared" si="3"/>
         <v>78.125</v>
       </c>
       <c r="H19" s="11">
-        <f>$C19/$H$2</f>
+        <f t="shared" si="4"/>
         <v>25.6</v>
       </c>
       <c r="I19" s="11">
-        <f>$C19*$H$2</f>
+        <f t="shared" si="5"/>
         <v>97.65625</v>
       </c>
     </row>
@@ -2236,27 +3158,27 @@
         <v>55</v>
       </c>
       <c r="D20" s="11">
-        <f>$C20/$D$2</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E20" s="11">
-        <f>$C20*$D$2</f>
+        <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
       <c r="F20" s="11">
-        <f>$C20/$F$2</f>
+        <f t="shared" si="2"/>
         <v>35.200000000000003</v>
       </c>
       <c r="G20" s="11">
-        <f>$C20*$F$2</f>
+        <f t="shared" si="3"/>
         <v>85.9375</v>
       </c>
       <c r="H20" s="11">
-        <f>$C20/$H$2</f>
+        <f t="shared" si="4"/>
         <v>28.16</v>
       </c>
       <c r="I20" s="11">
-        <f>$C20*$H$2</f>
+        <f t="shared" si="5"/>
         <v>107.421875</v>
       </c>
     </row>
@@ -2265,27 +3187,27 @@
         <v>60</v>
       </c>
       <c r="D21" s="11">
-        <f>$C21/$D$2</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E21" s="11">
-        <f>$C21*$D$2</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="F21" s="11">
-        <f>$C21/$F$2</f>
+        <f t="shared" si="2"/>
         <v>38.4</v>
       </c>
       <c r="G21" s="11">
-        <f>$C21*$F$2</f>
+        <f t="shared" si="3"/>
         <v>93.75</v>
       </c>
       <c r="H21" s="11">
-        <f>$C21/$H$2</f>
+        <f t="shared" si="4"/>
         <v>30.72</v>
       </c>
       <c r="I21" s="11">
-        <f>$C21*$H$2</f>
+        <f t="shared" si="5"/>
         <v>117.1875</v>
       </c>
     </row>
@@ -2294,27 +3216,27 @@
         <v>65</v>
       </c>
       <c r="D22" s="11">
-        <f>$C22/$D$2</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E22" s="11">
-        <f>$C22*$D$2</f>
+        <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
       <c r="F22" s="11">
-        <f>$C22/$F$2</f>
+        <f t="shared" si="2"/>
         <v>41.6</v>
       </c>
       <c r="G22" s="11">
-        <f>$C22*$F$2</f>
+        <f t="shared" si="3"/>
         <v>101.5625</v>
       </c>
       <c r="H22" s="11">
-        <f>$C22/$H$2</f>
+        <f t="shared" si="4"/>
         <v>33.28</v>
       </c>
       <c r="I22" s="11">
-        <f>$C22*$H$2</f>
+        <f t="shared" si="5"/>
         <v>126.953125</v>
       </c>
     </row>
@@ -2323,27 +3245,27 @@
         <v>70</v>
       </c>
       <c r="D23" s="11">
-        <f>$C23/$D$2</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E23" s="11">
-        <f>$C23*$D$2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="F23" s="11">
-        <f>$C23/$F$2</f>
+        <f t="shared" si="2"/>
         <v>44.8</v>
       </c>
       <c r="G23" s="11">
-        <f>$C23*$F$2</f>
+        <f t="shared" si="3"/>
         <v>109.375</v>
       </c>
       <c r="H23" s="11">
-        <f>$C23/$H$2</f>
+        <f t="shared" si="4"/>
         <v>35.840000000000003</v>
       </c>
       <c r="I23" s="11">
-        <f>$C23*$H$2</f>
+        <f t="shared" si="5"/>
         <v>136.71875</v>
       </c>
     </row>
@@ -2352,27 +3274,27 @@
         <v>75</v>
       </c>
       <c r="D24" s="11">
-        <f>$C24/$D$2</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E24" s="11">
-        <f>$C24*$D$2</f>
+        <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
       <c r="F24" s="11">
-        <f>$C24/$F$2</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="G24" s="11">
-        <f>$C24*$F$2</f>
+        <f t="shared" si="3"/>
         <v>117.1875</v>
       </c>
       <c r="H24" s="11">
-        <f>$C24/$H$2</f>
+        <f t="shared" si="4"/>
         <v>38.4</v>
       </c>
       <c r="I24" s="11">
-        <f>$C24*$H$2</f>
+        <f t="shared" si="5"/>
         <v>146.484375</v>
       </c>
     </row>
@@ -2381,27 +3303,27 @@
         <v>80</v>
       </c>
       <c r="D25" s="11">
-        <f>$C25/$D$2</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E25" s="11">
-        <f>$C25*$D$2</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F25" s="11">
-        <f>$C25/$F$2</f>
+        <f t="shared" si="2"/>
         <v>51.2</v>
       </c>
       <c r="G25" s="11">
-        <f>$C25*$F$2</f>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="H25" s="11">
-        <f>$C25/$H$2</f>
+        <f t="shared" si="4"/>
         <v>40.96</v>
       </c>
       <c r="I25" s="11">
-        <f>$C25*$H$2</f>
+        <f t="shared" si="5"/>
         <v>156.25</v>
       </c>
     </row>
@@ -2410,27 +3332,27 @@
         <v>85</v>
       </c>
       <c r="D26" s="11">
-        <f>$C26/$D$2</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="E26" s="11">
-        <f>$C26*$D$2</f>
+        <f t="shared" si="1"/>
         <v>106.25</v>
       </c>
       <c r="F26" s="11">
-        <f>$C26/$F$2</f>
+        <f t="shared" si="2"/>
         <v>54.4</v>
       </c>
       <c r="G26" s="11">
-        <f>$C26*$F$2</f>
+        <f t="shared" si="3"/>
         <v>132.8125</v>
       </c>
       <c r="H26" s="11">
-        <f>$C26/$H$2</f>
+        <f t="shared" si="4"/>
         <v>43.52</v>
       </c>
       <c r="I26" s="11">
-        <f>$C26*$H$2</f>
+        <f t="shared" si="5"/>
         <v>166.015625</v>
       </c>
     </row>
@@ -2439,27 +3361,27 @@
         <v>90</v>
       </c>
       <c r="D27" s="11">
-        <f>$C27/$D$2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="E27" s="11">
-        <f>$C27*$D$2</f>
+        <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
       <c r="F27" s="11">
-        <f>$C27/$F$2</f>
+        <f t="shared" si="2"/>
         <v>57.6</v>
       </c>
       <c r="G27" s="11">
-        <f>$C27*$F$2</f>
+        <f t="shared" si="3"/>
         <v>140.625</v>
       </c>
       <c r="H27" s="11">
-        <f>$C27/$H$2</f>
+        <f t="shared" si="4"/>
         <v>46.08</v>
       </c>
       <c r="I27" s="11">
-        <f>$C27*$H$2</f>
+        <f t="shared" si="5"/>
         <v>175.78125</v>
       </c>
     </row>
@@ -2468,27 +3390,27 @@
         <v>95</v>
       </c>
       <c r="D28" s="11">
-        <f>$C28/$D$2</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E28" s="11">
-        <f>$C28*$D$2</f>
+        <f t="shared" si="1"/>
         <v>118.75</v>
       </c>
       <c r="F28" s="11">
-        <f>$C28/$F$2</f>
+        <f t="shared" si="2"/>
         <v>60.8</v>
       </c>
       <c r="G28" s="11">
-        <f>$C28*$F$2</f>
+        <f t="shared" si="3"/>
         <v>148.4375</v>
       </c>
       <c r="H28" s="11">
-        <f>$C28/$H$2</f>
+        <f t="shared" si="4"/>
         <v>48.64</v>
       </c>
       <c r="I28" s="11">
-        <f>$C28*$H$2</f>
+        <f t="shared" si="5"/>
         <v>185.546875</v>
       </c>
     </row>
@@ -2497,27 +3419,27 @@
         <v>100</v>
       </c>
       <c r="D29" s="11">
-        <f>$C29/$D$2</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E29" s="11">
-        <f>$C29*$D$2</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="F29" s="11">
-        <f>$C29/$F$2</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="G29" s="11">
-        <f>$C29*$F$2</f>
+        <f t="shared" si="3"/>
         <v>156.25</v>
       </c>
       <c r="H29" s="11">
-        <f>$C29/$H$2</f>
+        <f t="shared" si="4"/>
         <v>51.2</v>
       </c>
       <c r="I29" s="11">
-        <f>$C29*$H$2</f>
+        <f t="shared" si="5"/>
         <v>195.3125</v>
       </c>
     </row>
